--- a/databases/Modulo4_AlunosInfo.xlsx
+++ b/databases/Modulo4_AlunosInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bteba\Documents\GitHub\Nivelamento_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\Git\Nivelamento_R\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC1A5D21-9773-4200-AA4E-367308ACDD19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231644A6-FBA1-44F6-B265-1B1C18F94F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlunosNotas" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>C210987</t>
   </si>
   <si>
-    <t>C476201</t>
-  </si>
-  <si>
     <t>C026318</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>C276583</t>
   </si>
   <si>
-    <t>C872306</t>
-  </si>
-  <si>
     <t>C274508</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
     <t>C214790</t>
   </si>
   <si>
-    <t>C805697</t>
-  </si>
-  <si>
     <t>C198532</t>
   </si>
   <si>
@@ -605,12 +596,18 @@
   </si>
   <si>
     <t>aluno.aleatorio50@dominio.com</t>
+  </si>
+  <si>
+    <t>AUSENTE</t>
+  </si>
+  <si>
+    <t>Cxxxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -753,7 +750,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -931,6 +928,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1094,8 +1097,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1450,701 +1454,704 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C32" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D34" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
+        <v>164</v>
+      </c>
+      <c r="D38" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" t="s">
-        <v>165</v>
-      </c>
-      <c r="D37" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" t="s">
-        <v>167</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>192</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>170</v>
-      </c>
-      <c r="C40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" t="s">
-        <v>185</v>
-      </c>
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" t="s">
-        <v>187</v>
-      </c>
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/databases/Modulo4_AlunosInfo.xlsx
+++ b/databases/Modulo4_AlunosInfo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\Git\Nivelamento_R\databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Teo\Documents\GitHub\Nivelamento_R\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231644A6-FBA1-44F6-B265-1B1C18F94F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3098230-573A-413E-89DA-66E7947CC48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlunosNotas" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AlunosNotas!$A$1:$G$51</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="194">
   <si>
     <t>C210987</t>
   </si>
@@ -602,6 +603,9 @@
   </si>
   <si>
     <t>Cxxxx</t>
+  </si>
+  <si>
+    <t>oi</t>
   </si>
 </sst>
 </file>
@@ -1457,17 +1461,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1593,7 +1597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1632,7 +1636,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1646,7 +1650,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1713,7 +1717,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1731,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1741,7 +1745,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1825,7 +1829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1843,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1853,7 +1857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1881,7 +1885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1906,7 +1910,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1920,7 +1924,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1934,7 +1938,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1945,7 +1949,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2001,7 +2005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2023,7 +2027,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2037,7 +2041,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -2076,7 +2080,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -2090,7 +2094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -2104,7 +2108,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -2118,7 +2122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -2158,4 +2162,24 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8FA0562-BF91-456A-9FD8-4C7FCB35C773}">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>